--- a/Test_case.xlsx
+++ b/Test_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace_Sel\Selenium_Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F6A2F4-437A-45AE-82C0-5C8FD042FFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDDB0E3-5879-4C3A-8827-797FADDD1980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4F59DD41-973B-48E2-B3E3-996EC81004A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F59DD41-973B-48E2-B3E3-996EC81004A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Scenario_keyword</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>tags[0]/name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -160,8 +169,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4511B8-4F93-4A49-9151-A7274C104D9E}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,14 +538,14 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -543,8 +553,8 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -557,14 +567,14 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -572,8 +582,8 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3">
-        <v>2</v>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -586,14 +596,14 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -601,8 +611,8 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4">
-        <v>3</v>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -620,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FF28E5-1ED5-4247-957B-5BC9A3A7E167}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/Test_case.xlsx
+++ b/Test_case.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace_Sel\Selenium_Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDDB0E3-5879-4C3A-8827-797FADDD1980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0DA880-B35E-4697-8A4E-F68ED118B20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F59DD41-973B-48E2-B3E3-996EC81004A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="postjsonmapping" sheetId="2" r:id="rId2"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="TestScenario" sheetId="3" r:id="rId2"/>
+    <sheet name="postjsonmapping" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
-  <si>
-    <t>Scenario_keyword</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -79,67 +77,276 @@
     <t>TC_02</t>
   </si>
   <si>
+    <t>url1</t>
+  </si>
+  <si>
+    <t>jsonfields</t>
+  </si>
+  <si>
+    <t>excelfields</t>
+  </si>
+  <si>
+    <t>category/id</t>
+  </si>
+  <si>
+    <t>category/name</t>
+  </si>
+  <si>
+    <t>photoUrls[]</t>
+  </si>
+  <si>
+    <t>tags[0]/id</t>
+  </si>
+  <si>
+    <t>tags[0]/name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TC_Description</t>
+  </si>
+  <si>
+    <t>TC_Id</t>
+  </si>
+  <si>
+    <t>Validate Post pet api</t>
+  </si>
+  <si>
+    <t>Sceanrio_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive </t>
+  </si>
+  <si>
+    <t>Response_Code_Matched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Actual_Response_Body</t>
+  </si>
+  <si>
+    <t>Expected_Response_Body</t>
+  </si>
+  <si>
+    <t>Actual_Response_Code</t>
+  </si>
+  <si>
+    <t>Expected_Response_Code</t>
+  </si>
+  <si>
+    <t>Schema_Matched</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>{
+    "photoUrls": ["url3"],
+    "name": "Rocky",
+    "id": 3,
+    "category": {
+        "name": "Cat",
+        "id": 3
+    },
+    "status": "available",
+    "tags": [{
+        "name": "Cat",
+        "id": 3
+    }]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": 3,
+    "category": {
+        "id": 3,
+        "name": "Cat"
+    },
+    "name": "Rocky",
+    "photoUrls": [
+        "url3"
+    ],
+    "tags": [
+        {
+            "id": 3,
+            "name": "Cat"
+        }
+    ],
+    "status": "available"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>json_file_path</t>
+  </si>
+  <si>
+    <t>400statuscode.json</t>
+  </si>
+  <si>
     <t>TC_03</t>
   </si>
   <si>
-    <t>Tommy</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Dog</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>url1</t>
-  </si>
-  <si>
-    <t>url2</t>
-  </si>
-  <si>
-    <t>url3</t>
-  </si>
-  <si>
-    <t>Not available</t>
-  </si>
-  <si>
-    <t>jsonfields</t>
-  </si>
-  <si>
-    <t>excelfields</t>
-  </si>
-  <si>
-    <t>category/id</t>
-  </si>
-  <si>
-    <t>category/name</t>
-  </si>
-  <si>
-    <t>photoUrls[]</t>
-  </si>
-  <si>
-    <t>tags[0]/id</t>
-  </si>
-  <si>
-    <t>tags[0]/name</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>500statuscode.json</t>
+  </si>
+  <si>
+    <t>Validate the api if mandatory field id value  is missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if mandatory field id is missing </t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Response_Schema_Validation_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{_x000D_
+  "id": ,_x000D_
+  "name": "doggie",_x000D_
+  "category": {_x000D_
+    "id": 1,_x000D_
+    "name": "Dogs"_x000D_
+  },_x000D_
+  "photoUrls": [_x000D_
+    "url"_x000D_
+  ],_x000D_
+  "tags": [_x000D_
+    {_x000D_
+      "id": 0,_x000D_
+      "name": "tommy"_x000D_
+    }_x000D_
+  ],_x000D_
+  "status": "available"_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t>{
+    "code": 400,
+    "message": "Input error: unable to convert input to io.swagger.petstore.model.Pet"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{_x000D_
+  _x000D_
+  "name": "doggie",_x000D_
+  "category": {_x000D_
+    "id": 1,_x000D_
+    "name": "Dogs"_x000D_
+  },_x000D_
+  "photoUrls": [_x000D_
+    "string"_x000D_
+  ],_x000D_
+  "tags": [_x000D_
+    {_x000D_
+      "id":1,_x000D_
+      "name": "string"_x000D_
+    }_x000D_
+  ],_x000D_
+  "status": "available"_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t>{
+    "code": 500,
+    "message": "There was an error processing your request. It has been logged (ID: a83fc1585898b683)"
+}</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>{"photoUrls":["url1"],"name":"Simmba","id":1,"category":{"name":"Lion","id":1},"status":"available","tags":[{"name":"Lion","id":1}]}</t>
+  </si>
+  <si>
+    <t>{
+    "id": 1,
+    "category": {
+        "id": 1,
+        "name": "Lion"
+    },
+    "name": "Simmba",
+    "photoUrls": [
+        "url1"
+    ],
+    "tags": [
+        {
+            "id": 1,
+            "name": "Lion"
+        }
+    ],
+    "status": "available"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "id": ,
+  "name": "doggie",
+  "category": {
+    "id": 1,
+    "name": "Dogs"
+  },
+  "photoUrls": [
+    "url"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "tommy"
+    }
+  ],
+  "status": "available"
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "name": "doggie",
+  "category": {
+    "id": 1,
+    "name": "Dogs"
+  },
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id":1,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}
+</t>
+  </si>
+  <si>
+    <t>{
+    "code": 500,
+    "message": "There was an error processing your request. It has been logged (ID: f231fdb3e2e5859b)"
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,139 +693,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4511B8-4F93-4A49-9151-A7274C104D9E}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.90625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="2.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.54296875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.90625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="10" max="10" customWidth="true" width="16.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="J3" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="J4" t="s" s="0">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -627,6 +805,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B9FE64-DB9F-4ECE-BAB8-CCBD8D7180B8}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.90625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.90625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.7265625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="156.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="177.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FF28E5-1ED5-4247-957B-5BC9A3A7E167}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -636,80 +963,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
+      <c r="A1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
